--- a/src/test/resources/Boo.xlsx
+++ b/src/test/resources/Boo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="76">
   <si>
     <t/>
   </si>
@@ -232,6 +232,49 @@
   </si>
   <si>
     <t>d) It measures the quality of software in terms of number of executed test cases.</t>
+  </si>
+  <si>
+    <t>Question 7:</t>
+  </si>
+  <si>
+    <t>Question #7
+Which of the following activities is part of the main activity "test analysis" in the test process?</t>
+  </si>
+  <si>
+    <t>a) Identifying any required infrastructure and tools.</t>
+  </si>
+  <si>
+    <t>b) Creating test suites from test scripts.</t>
+  </si>
+  <si>
+    <t>c) Analyzing lessons learned for process improvement.</t>
+  </si>
+  <si>
+    <t>d) Evaluating the test basis for testability.</t>
+  </si>
+  <si>
+    <t>Question 38:</t>
+  </si>
+  <si>
+    <t>Question #38
+You are performing system testing of a train reservation system. Based on the test cases performed, you have noticed that the system occasionally reports that no trains are available, although this should actually be the case. You have provided the developers with a summary of the defect and the version of the tested system. They recognize the urgency of the defect and are now waiting for you to provide further details.
+In addition to the information already provided, the following additional information is given:
+1. Degree of impact (severity) of the defect.
+2. Identification of the test item.
+3. Details of the test environment.
+4. Urgency/priority to fix.
+5. Actual results.
+6. Reference to test case specification.
+Which of this information is most useful to include in the defect report?</t>
+  </si>
+  <si>
+    <t>1. Degree of impact (severity) of the defect.</t>
+  </si>
+  <si>
+    <t>a) 1, 2, 6</t>
+  </si>
+  <si>
+    <t>b) 1, 4, 5, 6</t>
   </si>
 </sst>
 </file>
@@ -562,7 +605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1030,6 +1073,114 @@
         <v>64</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1037,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1149,6 +1300,59 @@
       </c>
       <c r="C10" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Boo.xlsx
+++ b/src/test/resources/Boo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="174">
   <si>
     <t/>
   </si>
@@ -34,6 +34,225 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>Question 14:</t>
+  </si>
+  <si>
+    <t>Question #14
+Which of the following options are roles in a formal review?</t>
+  </si>
+  <si>
+    <t>a) Developer, Moderator, Review leader, Tester.</t>
+  </si>
+  <si>
+    <t>b) Author, Moderator, Manager, Developer.</t>
+  </si>
+  <si>
+    <t>c) Author, Manager, Review leader, Designer.</t>
+  </si>
+  <si>
+    <t>d) Author, Moderator, Review leader, Scribe.</t>
+  </si>
+  <si>
+    <t>Question 15:</t>
+  </si>
+  <si>
+    <t>Question #15
+Which activities are carried out within the planning of a formal review?</t>
+  </si>
+  <si>
+    <t>a) Collection of metrics for the evaluation of the effectiveness of the review.</t>
+  </si>
+  <si>
+    <t>b) Answer any questions the participants may have.</t>
+  </si>
+  <si>
+    <t>c) Defintion and Verification of fulfillment of entry criteria for the review.</t>
+  </si>
+  <si>
+    <t>d) Evaluation of the review findings against the exit criteria.</t>
+  </si>
+  <si>
+    <t>Question 16:</t>
+  </si>
+  <si>
+    <t>Question #16
+Which of the review types below is the BEST option to choose when the review must follow a formal process based on rules and checklists?</t>
+  </si>
+  <si>
+    <t>a) Informal Review</t>
+  </si>
+  <si>
+    <t>b) Technical Review</t>
+  </si>
+  <si>
+    <t>c) Inspection</t>
+  </si>
+  <si>
+    <t>d) Walkthrough</t>
+  </si>
+  <si>
+    <t>Question 17:</t>
+  </si>
+  <si>
+    <t>Question #17
+Which ONE of the following statements about static testing are MOST true?</t>
+  </si>
+  <si>
+    <t>a) Static testing is a cheap way to detect and remove defects.</t>
+  </si>
+  <si>
+    <t>b) Static testing makes dynamic testing less challenging.</t>
+  </si>
+  <si>
+    <t>c) Static testing makes it possible to find run-time problems early in the lifecycle.</t>
+  </si>
+  <si>
+    <t>d) When testing safety-critical system, static testing has less value because dynamic testing finds the defects better.</t>
+  </si>
+  <si>
+    <t>Question 18:</t>
+  </si>
+  <si>
+    <t>Question #18
+You will be invited to a review. The work product to be reviewed is a description of the in-house document creation process. The aim of the description is to present the work distribution between the different roles involved in the process in a way that can be clearly understood by everyone.
+You will be invited to a checklist-based review. The checklist will also be sent to you. It includes the following points:
+i. Is the person who performs the activity clearly identified for each activity?
+ii. Is the entry criteria clearly defined for each activity?
+iii. Is the exit criteria clearly defined for each activity?
+iv. Are the supporting roles and their scope of work clearly defined for each activity?
+In the following we show an excerpt of the work result to be reviewed, for which you should use the checklist above:
+"After checking the customer documentation for completeness and correctness, the software architect creates the system specification. Once the software architect has completed the system specification, he invites testers and verifiers to the review. A checklist describes the scope of the review. Each invited reviewer creates review comments - if necessary - and concludes the review with an official review done-comment."
+Which of the following statements about your review is correct?</t>
+  </si>
+  <si>
+    <t>a) Point ii) of the checklist has been violated because it is not clear which condition must be fulfilled in order to invite to the review.</t>
+  </si>
+  <si>
+    <t>b) You notice that in addition to the tester and the verifier, the validator must also be invited. Since this item is not part of your checklist, you do not create a corresponding comment.</t>
+  </si>
+  <si>
+    <t>c) Point iii) of the checklist has been violated as it is not clear what marks the review as completed.</t>
+  </si>
+  <si>
+    <t>d) Point i) of the checklist has been violated because it is not clear who is providing the checklist for the invitation to the review.</t>
+  </si>
+  <si>
+    <t>Question 19:</t>
+  </si>
+  <si>
+    <t>Question #19
+What is checklist-based testing?</t>
+  </si>
+  <si>
+    <t>a) A test technique in which tests are derived based on the tester's knowledge of past faults, or general knowledge of failures.</t>
+  </si>
+  <si>
+    <t>b) Procedure to derive and/or select test cases based on an analysis of the specification, either functional or non-functional, of a component or system without reference to its internal structure.</t>
+  </si>
+  <si>
+    <t>c) An experience-based test technique whereby the experienced tester uses a list of items to be noted, checked, or remembered, or a set of rules or criteria against which a product has to be verified.</t>
+  </si>
+  <si>
+    <t>d) An approach to testing where the testers dynamically design and execute tests based on their knowledge, exploration of the test item and the results of previous tests.</t>
+  </si>
+  <si>
+    <t>Question 20:</t>
+  </si>
+  <si>
+    <t>Question #20
+Which one of the following options is categorized as a black-box test technique?</t>
+  </si>
+  <si>
+    <t>a) A technique based on analysis of the architecture.</t>
+  </si>
+  <si>
+    <t>b) A technique checking that the test object is working according to the detailed design.</t>
+  </si>
+  <si>
+    <t>c) A technique based on the knowledge of past faults, or general knowledge of failures.</t>
+  </si>
+  <si>
+    <t>d) A technique based on formal requirements.</t>
+  </si>
+  <si>
+    <t>Question 21:</t>
+  </si>
+  <si>
+    <t>Question #21
+The following statement refers to decision coverage:
+“When the code contains only a single ‘if’ statement and no loops or CASE statements, and its execution is not nested within the test, any single test case we run will result in 50% decision coverage.”
+Which of the following statement is correct?</t>
+  </si>
+  <si>
+    <t>a) The statement is true. Any single test case provides 100% statement coverage and therefore 50% decision coverage.</t>
+  </si>
+  <si>
+    <t>b) The statement is true. Any single test case would cause the outcome of the “if” statement to be either true or false.</t>
+  </si>
+  <si>
+    <t>c) The statement is false. A single test case can only guarantee 25% decision coverage in this case.</t>
+  </si>
+  <si>
+    <t>d) The statement is false. The statement is too broad. It may be correct or not, depending on the tested software.</t>
+  </si>
+  <si>
+    <t>Question 22:</t>
+  </si>
+  <si>
+    <t>Question #22
+Which one of the following is the description of statement coverage?</t>
+  </si>
+  <si>
+    <t>a) It is a metric, which is the percentage of test cases that have been executed.</t>
+  </si>
+  <si>
+    <t>b) It is a metric, which is the percentage of statements in the source code that have been executed.</t>
+  </si>
+  <si>
+    <t>c) It is a metric, which is the number of statements in the source code that have been executed by test cases that are passed.</t>
+  </si>
+  <si>
+    <t>d) It is a metric, that gives a true/false confirmation if all statements are covered or not.</t>
+  </si>
+  <si>
+    <t>Question 23:</t>
+  </si>
+  <si>
+    <t>Question #23
+Which statement about the relationship between statement coverage and decision coverage is true?</t>
+  </si>
+  <si>
+    <t>a) 100% decision coverage also guarantees 100% statement coverage.</t>
+  </si>
+  <si>
+    <t>b) 100% statement coverage also guarantees 100% decision coverage.</t>
+  </si>
+  <si>
+    <t>c) 50% decision coverage also guarantees 50% statement coverage.</t>
+  </si>
+  <si>
+    <t>d) Decision coverage can never reach 100%.</t>
+  </si>
+  <si>
+    <t>Question 24:</t>
+  </si>
+  <si>
+    <t>Question #24
+For which of the following situations is exploratory testing suitable?</t>
+  </si>
+  <si>
+    <t>a) When time pressure requires speeding up the execution of tests already specified.</t>
+  </si>
+  <si>
+    <t>b) When the system is developed incrementally and no test charter is available.</t>
+  </si>
+  <si>
+    <t>c) When testers are available who have sufficient knowledge of similar applications and technologies.</t>
+  </si>
+  <si>
+    <t>d) When an advanced knowledge of the system already exists and evidence is to be provided that it should be tested intensively.</t>
   </si>
   <si>
     <t>Question 25:</t>
@@ -60,221 +279,349 @@
     <t>d) 4</t>
   </si>
   <si>
-    <t>Lesson 7. Exam Sample B</t>
+    <t>Question 26:</t>
+  </si>
+  <si>
+    <t>Question #26
+A speed control and reporting system has the following characteristics:
+If you drive 50 km/h or less, nothing will happen.
+If you drive faster than 50 km/h, but no more than 55 km/h, you will be warned.
+If you drive faster than 55 km/h but not more than 60 km/h, you will be fined.
+If you drive faster than 60 km/h, your driving license will be suspended.
+The speed in km/h is available to the system as an integer value.
+Which would be the most likely set of values (km/h) identified by applying the boundary value analysis, where only the values on the boundaries of the equivalence classes are selected?</t>
+  </si>
+  <si>
+    <t>Which would be the most likely set of values (km/h) identified by applying the boundary value analysis, where only the values on the boundaries of the equivalence classes are selected?</t>
+  </si>
+  <si>
+    <t>a) 0, 49, 50, 54, 59, 60.</t>
+  </si>
+  <si>
+    <t>b) 50, 55, 60.</t>
+  </si>
+  <si>
+    <t>c) 49, 50, 54, 55, 60, 62.</t>
+  </si>
+  <si>
+    <t>d) 50, 51, 55, 56, 60, 61.</t>
+  </si>
+  <si>
+    <t>Question 27:</t>
+  </si>
+  <si>
+    <t>Question #27
+A company's employees are paid bonuses if they work more than a year in the company and achieve a target which is individually agreed before.
+These facts can be shown in a decision table:
+Which of the following test cases represents a situation that can happen in real life, and is missing in the above decision table?</t>
+  </si>
+  <si>
+    <t>a) Condition1 = YES, Condition2 = NO, Condition3 = YES, Action= NO</t>
+  </si>
+  <si>
+    <t>b) Condition1 = YES, Condition2 = YES, Condition3 = NO, Action= YES</t>
+  </si>
+  <si>
+    <t>c) Condition1 = NO, Condition2 = NO, Condition3 = YES, Action= NO</t>
+  </si>
+  <si>
+    <t>d) Condition1 = NO, Condition2 = YES, Condition3 = NO, Action= NO</t>
+  </si>
+  <si>
+    <t>Question 28:</t>
+  </si>
+  <si>
+    <t>Question #28
+Which of the following statements about the given state transition diagram and table of test cases is TRUE?
+\</t>
+  </si>
+  <si>
+    <t>a) The given test cases cover both valid and invalid transitions in the state transition diagram.</t>
+  </si>
+  <si>
+    <t>b) The given test cases represent all possible valid transitions in the state transition diagram.</t>
+  </si>
+  <si>
+    <t>c) The given test cases represent some of the valid transitions in the state transition diagram.</t>
+  </si>
+  <si>
+    <t>d) The given test cases represent pairs of transitions in the state transition diagram.</t>
+  </si>
+  <si>
+    <t>Question 29:</t>
+  </si>
+  <si>
+    <t>Question #29
+A video application has the following requirement: The application shall allow playing a video on the following display resolution:
+1. 640x480.
+2. 1280x720.
+3. 1600x1200.
+4. 1920x1080.
+Which of the following list of test cases is a result of applying the equivalence partitioning test technique to test this requirement?</t>
+  </si>
+  <si>
+    <t>a) Verify that the application can play a video on a display of size 1920x1080 (1 test case).</t>
+  </si>
+  <si>
+    <t>b) Verify that the application can play a video on a display of size 640x480 and 1920x1080 (2 test cases).</t>
+  </si>
+  <si>
+    <t>c) Verify that the application can play a video on each of the display sizes in the requirement (4 test cases).</t>
+  </si>
+  <si>
+    <t>d) Verify that the application can play a video on any one of the display sizes in the requirement (1 test case).</t>
+  </si>
+  <si>
+    <t>Question 30:</t>
+  </si>
+  <si>
+    <t>Question #30
+Which of the following statements BEST describes how tasks are divided between the test manager and the tester?</t>
+  </si>
+  <si>
+    <t>a) The test manager plans testing activities and chooses the standards to be followed, while the tester chooses the tools and set the tools usage guidelines.</t>
+  </si>
+  <si>
+    <t>b) The test manager plans, coordinates and controls the testing activities, while the tester specifies the tests and prepare test data.</t>
+  </si>
+  <si>
+    <t>c) The test manager plans, monitors, and controls the testing activities, while the tester designs tests and decides on the release of the test object.</t>
+  </si>
+  <si>
+    <t>d) The test manager plans and organizes the testing and specifies the test cases, while the tester executes the tests.</t>
+  </si>
+  <si>
+    <t>Question 31:</t>
+  </si>
+  <si>
+    <t>Question #31
+Which of the following metrics would be MOST useful to monitor during test execution?</t>
+  </si>
+  <si>
+    <t>a) Percentage of executed test cases.</t>
+  </si>
+  <si>
+    <t>b) Average number of testers involved in the test execution.</t>
+  </si>
+  <si>
+    <t>c) Coverage of requirements by source code.</t>
+  </si>
+  <si>
+    <t>d) Percentage of test cases already created and reviewed.</t>
+  </si>
+  <si>
+    <t>Question 32:</t>
+  </si>
+  <si>
+    <t>Question #32
+Which ONE of the following can affect and be part of the (initial) test planning?</t>
+  </si>
+  <si>
+    <t>Which ONE of the following can affect and be part of the (initial) test planning?</t>
+  </si>
+  <si>
+    <t>a) Test objectives</t>
+  </si>
+  <si>
+    <t>b) Test log</t>
+  </si>
+  <si>
+    <t>c) Failure rate</t>
+  </si>
+  <si>
+    <t>d) Use cases</t>
+  </si>
+  <si>
+    <t>Question 33:</t>
+  </si>
+  <si>
+    <t>Question #33
+Which of the following lists contains only typical exit criteria from testing?</t>
+  </si>
+  <si>
+    <t>a) Reliability measures, test coverage, schedule and status about fixing errors and remaining risks.</t>
+  </si>
+  <si>
+    <t>b) Reliability measures, test coverage, degree of tester’s independence and product completeness.</t>
+  </si>
+  <si>
+    <t>c) Reliability measures, test coverage, test cost, availability of test environment, time to market and product completeness.</t>
+  </si>
+  <si>
+    <t>d) Time to market, remaining defects, tester qualification, availability of testable use cases, test coverage and test cost.</t>
+  </si>
+  <si>
+    <t>Question 34:</t>
+  </si>
+  <si>
+    <t>Question #34
+Which one of the following is NOT included in a test summary report?</t>
+  </si>
+  <si>
+    <t>a) Defining pass/fail criteria and objectives of testing.</t>
+  </si>
+  <si>
+    <t>b) Deviations from the test approach.</t>
+  </si>
+  <si>
+    <t>c) Measurements of actual progress against exit criteria.</t>
+  </si>
+  <si>
+    <t>d) Evaluation of the quality of the test object.</t>
   </si>
   <si>
     <t>Question 35:</t>
   </si>
   <si>
     <t>Question #35
-Which of the following BEST defines risk level?</t>
-  </si>
-  <si>
-    <t>a) Risk level is calculated by adding together the probabilities of all problem situations and the financial harm that results from them.</t>
-  </si>
-  <si>
-    <t>b) Risk level is estimated by multiplying the likelihood of a threat to the system by the chance that the threat will occur and will result in financial damage</t>
-  </si>
-  <si>
-    <t>c) Risk level is determined by a combination of the probability of an undesirable event and the expected impact of that event.</t>
-  </si>
-  <si>
-    <t>d) Risk level is the sum of all potential hazards to a system multiplied by the sum of all potential losses from that system.</t>
+The project develops a "smart" heating thermostat. The control algorithms of the thermostat were modeled as Matlab/Simulink models and run on the internet connected server. The thermostat uses the specifications of the server to trigger the heating valves.
+The test manager has defined the following test strategy/approach in the test plan:
+1. The acceptance test for the whole system is executed as an experience-based test.
+2. The control algorithms on the server are tested during implementation using continuous integration.
+3. The functional test of the thermostat is performed as risk-based testing.
+4. The security tests of data / communication via the internet are executed together with external security experts.
+What four common types of test strategies/approaches did the test manager implement in the test plan?</t>
+  </si>
+  <si>
+    <t>a) methodical, analytical, reactive and regression-averse.</t>
+  </si>
+  <si>
+    <t>b) analytical, model-based, consultative and reactive.</t>
+  </si>
+  <si>
+    <t>c) model-based, methodical, analytical and consultative.</t>
+  </si>
+  <si>
+    <t>d) regression-averse, consultative, reactive and methodical.</t>
   </si>
   <si>
     <t>Question 36:</t>
   </si>
   <si>
     <t>Question #36
-Which of the following is MOST likely to be an example of a PRODUCT risk?</t>
-  </si>
-  <si>
-    <t>a) The expected security features may not be supported by the system architecture.</t>
-  </si>
-  <si>
-    <t>b) The developers may not have time to fix all the defects found by the test team.</t>
-  </si>
-  <si>
-    <t>c) The test cases may not provide full coverage of the specified requirements.</t>
-  </si>
-  <si>
-    <t>d) The performance test environment may not be ready before the system is due for delivery.</t>
-  </si>
-  <si>
-    <t>Question 1:</t>
-  </si>
-  <si>
-    <t>Question #1
-Which one of the following answers describes a test condition?</t>
-  </si>
-  <si>
-    <t>a) A distinguishing characteristic of a component or system.</t>
-  </si>
-  <si>
-    <t>b) A testable aspect of a component or system identified as a basis for testing.</t>
-  </si>
-  <si>
-    <t>c) The degree to which a software product provides functions which meet stated and implied needs when the software is used under specified conditions.</t>
-  </si>
-  <si>
-    <t>d) The percentage of all single condition outcomes that independently affect a decision outcome that have been exercised by a test suite.</t>
-  </si>
-  <si>
-    <t>Question 2:</t>
-  </si>
-  <si>
-    <t>Question #2
-Which of the following statements is a valid objective for testing?</t>
-  </si>
-  <si>
-    <t>a) The test should start as late as possible so that development had enough time to create a good product.</t>
-  </si>
-  <si>
-    <t>b) To find as many failures as possible so that defects can be identified and corrected.</t>
-  </si>
-  <si>
-    <t>c) To prove that all possible defects are identified.</t>
-  </si>
-  <si>
-    <t>d) To prove that any remaining defects will not cause any failures.</t>
-  </si>
-  <si>
-    <t>Question 3:</t>
-  </si>
-  <si>
-    <t>Question #3
-Which of the following statements correctly describes the difference between testing and debugging?</t>
-  </si>
-  <si>
-    <t>a) Testing identifies the source of defects; debugging analyzes the defects and proposes prevention activities.</t>
-  </si>
-  <si>
-    <t>b) Dynamic testing shows failures caused by defects; debugging eliminates the defects, which are the source of failures</t>
-  </si>
-  <si>
-    <t>c) Testing does not remove faults; but debugging removes defects that cause the faults.</t>
-  </si>
-  <si>
-    <t>d) Dynamic testing prevents the causes of failures; debugging removes the failures.</t>
+Which one of the following is the characteristic of a metrics-based approach for test estimation?</t>
+  </si>
+  <si>
+    <t>a) Budget which was used by a previous similar test project.</t>
+  </si>
+  <si>
+    <t>b) Overall experience collected in interviews with test managers.</t>
+  </si>
+  <si>
+    <t>c) Estimation of effort for test automation agreed in the test team.</t>
+  </si>
+  <si>
+    <t>d) Average of calculations collected from business experts.</t>
   </si>
   <si>
     <t>Question 37:</t>
   </si>
   <si>
     <t>Question #37
-Which of the following is LEAST likely to be an example of product risk analysis CORRECTLY influencing the testing?</t>
-  </si>
-  <si>
-    <t>a) The potential impact of security flaws has been identified as being particularly high, so security testing has been prioritized ahead of some other testing activities.</t>
-  </si>
-  <si>
-    <t>b) Testing has found the quality of the network module to be higher than expected, so additional testing will not be performed in that area.</t>
-  </si>
-  <si>
-    <t>c) The users had problems with the user interface of the previous system, so additional usability testing is planned for the replacement system.</t>
-  </si>
-  <si>
-    <t>d) The time needed to load web pages is crucial to the success of the new website, so an expert in performance testing has been employed for this project.</t>
-  </si>
-  <si>
-    <t>Question 4:</t>
-  </si>
-  <si>
-    <t>Question #4
-Which one of the statements below describes the most common situation for a failure discovered during testing or in production?</t>
-  </si>
-  <si>
-    <t>a) The product crashed when the user selected an option in a dialog box.</t>
-  </si>
-  <si>
-    <t>b) The wrong version of a compiled source code file was included in the build.</t>
-  </si>
-  <si>
-    <t>c) The computation algorithm used the wrong input variables.</t>
-  </si>
-  <si>
-    <t>d) The developer misinterpreted the requirement for the algorithm.</t>
-  </si>
-  <si>
-    <t>Question 5:</t>
-  </si>
-  <si>
-    <t>Question #5
-Mr. Test has been testing software applications on mobile devices for a period of 5 years. He has a wealth of experience in testing mobile applications and achieves better results in a shorter time than others. Over several months Mr. Test did not modify the existing automated test cases and did not create any new test cases. This leads to fewer and fewer defects being found by executing the tests. What principle of testing did Mr. Test not observe?</t>
-  </si>
-  <si>
-    <t>a) Testing depends on the environment.</t>
-  </si>
-  <si>
-    <t>b) Exhaustive testing is not possible.</t>
-  </si>
-  <si>
-    <t>c) Repeating of same tests will not find new defects.</t>
-  </si>
-  <si>
-    <t>d) Defects cluster together.</t>
-  </si>
-  <si>
-    <t>Question 6:</t>
-  </si>
-  <si>
-    <t>Question #6
-In what way can testing be part of Quality Assurance?</t>
-  </si>
-  <si>
-    <t>a) It ensures that requirements are detailed enough.</t>
-  </si>
-  <si>
-    <t>b) It contributes to the achievement of quality in a variety of ways.</t>
-  </si>
-  <si>
-    <t>c) It ensures that standards in the organization are followed.</t>
-  </si>
-  <si>
-    <t>d) It measures the quality of software in terms of number of executed test cases.</t>
-  </si>
-  <si>
-    <t>Question 7:</t>
-  </si>
-  <si>
-    <t>Question #7
-Which of the following activities is part of the main activity "test analysis" in the test process?</t>
-  </si>
-  <si>
-    <t>a) Identifying any required infrastructure and tools.</t>
-  </si>
-  <si>
-    <t>b) Creating test suites from test scripts.</t>
-  </si>
-  <si>
-    <t>c) Analyzing lessons learned for process improvement.</t>
-  </si>
-  <si>
-    <t>d) Evaluating the test basis for testability.</t>
+As a test manager you are responsible for testing the following parts of requirements:
+R1 - Process anomalies
+R2 - Synchronization
+R3 - Approval
+R4 - Problem solving
+R5 - Financial data
+R6 - Diagram data
+R7 - Changes to the user profile
+Notation: Logical requirement dependencies (A -&gt; B means, that B depends on A):
+Which one of the following options structures the test execution schedule according to the requirement dependencies?</t>
+  </si>
+  <si>
+    <t>Notation: Logical requirement dependencies (A -&gt; B means, that B depends on A):</t>
+  </si>
+  <si>
+    <t>a) R1 -&gt; R3 -&gt; R4 -&gt; R7 -&gt; R2 -&gt; R5 -&gt; R6 .</t>
+  </si>
+  <si>
+    <t>b) R1 -&gt; R3 -&gt; R2 -&gt; R4 -&gt; R7 -&gt; R5 -&gt; R6.</t>
+  </si>
+  <si>
+    <t>c) R1 -&gt; R3 -&gt; R2 -&gt; R5 -&gt; R6 -&gt; R4 -&gt; R7.</t>
+  </si>
+  <si>
+    <t>d) R1 -&gt; R2 -&gt; R5 -&gt; R6 -&gt; R3 -&gt; R4 -&gt; R7.</t>
   </si>
   <si>
     <t>Question 38:</t>
   </si>
   <si>
     <t>Question #38
-You are performing system testing of a train reservation system. Based on the test cases performed, you have noticed that the system occasionally reports that no trains are available, although this should actually be the case. You have provided the developers with a summary of the defect and the version of the tested system. They recognize the urgency of the defect and are now waiting for you to provide further details.
-In addition to the information already provided, the following additional information is given:
-1. Degree of impact (severity) of the defect.
-2. Identification of the test item.
-3. Details of the test environment.
-4. Urgency/priority to fix.
-5. Actual results.
-6. Reference to test case specification.
-Which of this information is most useful to include in the defect report?</t>
-  </si>
-  <si>
-    <t>1. Degree of impact (severity) of the defect.</t>
-  </si>
-  <si>
-    <t>a) 1, 2, 6</t>
-  </si>
-  <si>
-    <t>b) 1, 4, 5, 6</t>
+You are testing a new version of software for a coffee machine. The machine can prepare different types of coffee based on four categories. i.e., coffee size, sugar, milk, and syrup. The criteria are as follows:
+- Coffee size (small, medium, large),
+- Sugar (none, 1 unit, 2 units, 3 units, 4 units),
+- Milk (yes or no),
+- Coffee flavor syrup (no syrup, caramel, hazelnut, vanilla).
+Now you are writing a defect report with the following information:
+Title: Low coffee temperature. Short summary: When you select coffee with milk, the time for preparing coffee is too long and the temperature of the beverage is too low (less than 40 °C ) Expected result: The temperature of coffee should be standard (about 75 °C). Degree of risk: Medium Priority: Normal
+What valuable information was omitted in the above defect report?</t>
+  </si>
+  <si>
+    <t>- Coffee size (small, medium, large),</t>
+  </si>
+  <si>
+    <t>- Sugar (none, 1 unit, 2 units, 3 units, 4 units),</t>
+  </si>
+  <si>
+    <t>- Milk (yes or no),</t>
+  </si>
+  <si>
+    <t>- Coffee flavor syrup (no syrup, caramel, hazelnut, vanilla).</t>
+  </si>
+  <si>
+    <t>Title: Low coffee temperature. Short summary: When you select coffee with milk, the time for preparing coffee is too long and the temperature of the beverage is too low (less than 40 °C ) Expected result: The temperature of coffee should be standard (about 75 °C). Degree of risk: Medium Priority: Normal</t>
+  </si>
+  <si>
+    <t>a) The actual test result.</t>
+  </si>
+  <si>
+    <t>b) Identification of the tested software version.</t>
+  </si>
+  <si>
+    <t>c) Status of the defect.</t>
+  </si>
+  <si>
+    <t>d) Ideas for improving the test case.</t>
+  </si>
+  <si>
+    <t>Question 39:</t>
+  </si>
+  <si>
+    <t>Question #39
+Which one of the following is MOST likely to be a benefit of test execution tools?</t>
+  </si>
+  <si>
+    <t>a) It is easy to create regression tests.</t>
+  </si>
+  <si>
+    <t>b) It is easy to maintain version control of test assets.</t>
+  </si>
+  <si>
+    <t>c) It is easy to design tests for security testing.</t>
+  </si>
+  <si>
+    <t>d) It is easy to run regression tests.</t>
+  </si>
+  <si>
+    <t>Question 40:</t>
+  </si>
+  <si>
+    <t>Question #40
+Which one of the following test tools is mostly suitable for developers rather than testers?</t>
+  </si>
+  <si>
+    <t>a) Requirement management tools</t>
+  </si>
+  <si>
+    <t>b) Configuration management tools</t>
+  </si>
+  <si>
+    <t>c) Static analysis tools</t>
+  </si>
+  <si>
+    <t>d) Performance testing tools</t>
   </si>
 </sst>
 </file>
@@ -605,7 +952,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -679,506 +1026,1234 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
         <v>59</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>60</v>
-      </c>
-      <c r="C39" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
         <v>59</v>
       </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44"/>
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
         <v>65</v>
       </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
         <v>65</v>
       </c>
-      <c r="B46" t="s">
-        <v>66</v>
-      </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>162</v>
+      </c>
+      <c r="B111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" t="s">
+        <v>169</v>
+      </c>
+      <c r="C115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>168</v>
+      </c>
+      <c r="B117" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1188,207 +2263,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12"/>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/Boo.xlsx
+++ b/src/test/resources/Boo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="85">
   <si>
     <t/>
   </si>
@@ -275,6 +275,42 @@
   </si>
   <si>
     <t>b) 1, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>Question 8:</t>
+  </si>
+  <si>
+    <t>Question #8
+Match the following test work products (1-4) with the right description (A-D).
+1. Test suite.
+2. Test case.
+3. Test script.
+4. Test charter.
+A. A set of test scripts to be executed in a specific test run.
+B. A set of instructions for the execution of a test.
+C. Contains expected results.
+D. Documentation of test activities in session-based exploratory testing.</t>
+  </si>
+  <si>
+    <t>Match the following test work products (1-4) with the right description (A-D).</t>
+  </si>
+  <si>
+    <t>a) 1A, 2C, 3B, 4D.</t>
+  </si>
+  <si>
+    <t>b) 1D, 2B, 3A, 4C.</t>
+  </si>
+  <si>
+    <t>c) 1A, 2C, 3D, 4B.</t>
+  </si>
+  <si>
+    <t>d) 1D, 2C, 3B, 4A.</t>
+  </si>
+  <si>
+    <t>c) 2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>d) 3, 5, 6</t>
   </si>
 </sst>
 </file>
@@ -605,7 +641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1181,6 +1217,81 @@
         <v>70</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54"/>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1188,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1353,6 +1464,81 @@
       </c>
       <c r="C15" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
